--- a/Dokumente/Evaluierung_Meter.xlsx
+++ b/Dokumente/Evaluierung_Meter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH_Technikum\WS_21\Bachelorprojekt\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868ECEDB-1D1A-40AA-929D-ADF83481EC21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020ADBDD-E4F1-4FEC-80EE-EEB8777BF7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
   <si>
     <t>MetaWearC (MbientLab)</t>
   </si>
@@ -102,6 +102,21 @@
   </si>
   <si>
     <t>Gesamt</t>
+  </si>
+  <si>
+    <t>Messung 6</t>
+  </si>
+  <si>
+    <t>Messung 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blaue Pfote </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetaWearC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keeper </t>
   </si>
 </sst>
 </file>
@@ -145,7 +160,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -158,6 +173,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1246,28 +1264,29 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1429,7 +1448,7 @@
         <v>2</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:E12" si="0">AVERAGE(C2:C11)</f>
+        <f t="shared" ref="C12:D12" si="0">AVERAGE(C2:C11)</f>
         <v>12.2</v>
       </c>
       <c r="D12">
@@ -1532,11 +1551,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A19036A6-994F-469B-B4EE-2E8B9ECF91CA}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
@@ -1804,27 +1827,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE850BF0-E72A-4B46-AB14-82C42B72E49F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>3</v>
+      <c r="A1" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumente/Evaluierung_Meter.xlsx
+++ b/Dokumente/Evaluierung_Meter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH_Technikum\WS_21\Bachelorprojekt\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020ADBDD-E4F1-4FEC-80EE-EEB8777BF7C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208789A-151F-4578-B413-896EA6735DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
   <si>
     <t>MetaWearC (MbientLab)</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t xml:space="preserve">Keeper </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anmerkung: "Gemessen" wurde die Anzahl der Töne. </t>
   </si>
 </sst>
 </file>
@@ -458,16 +461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -485,7 +489,9 @@
         <v>2</v>
       </c>
       <c r="G1" s="1"/>
-      <c r="H1" s="5"/>
+      <c r="H1" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
@@ -664,6 +670,9 @@
         <f>SUM(B13:D13)</f>
         <v>16.7</v>
       </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -712,12 +721,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F91EDA7-B35B-4559-B17F-876D2A1D1F7F}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
@@ -1827,7 +1837,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE850BF0-E72A-4B46-AB14-82C42B72E49F}">
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>

--- a/Dokumente/Evaluierung_Meter.xlsx
+++ b/Dokumente/Evaluierung_Meter.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FH_Technikum\WS_21\Bachelorprojekt\Dokumente\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1208789A-151F-4578-B413-896EA6735DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A081018-A270-4BE8-A3DF-3C2DB2C32D4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test1" sheetId="1" r:id="rId1"/>
     <sheet name="Test2" sheetId="2" r:id="rId2"/>
     <sheet name="Test3" sheetId="3" r:id="rId3"/>
-    <sheet name="Test4" sheetId="4" r:id="rId4"/>
-    <sheet name="Test5" sheetId="6" r:id="rId5"/>
-    <sheet name="Test6" sheetId="5" r:id="rId6"/>
+    <sheet name="Fail" sheetId="4" r:id="rId4"/>
+    <sheet name="Test4" sheetId="6" r:id="rId5"/>
+    <sheet name="Test5" sheetId="5" r:id="rId6"/>
+    <sheet name="AusreißerDiagramm" sheetId="7" r:id="rId7"/>
+    <sheet name="Tabelle2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="31">
   <si>
     <t>MetaWearC (MbientLab)</t>
   </si>
@@ -121,6 +123,18 @@
   <si>
     <t xml:space="preserve">Anmerkung: "Gemessen" wurde die Anzahl der Töne. </t>
   </si>
+  <si>
+    <t>Außreißer</t>
+  </si>
+  <si>
+    <t>Mittelwert</t>
+  </si>
+  <si>
+    <t>Standardabweichung</t>
+  </si>
+  <si>
+    <t>Distanz</t>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +177,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -179,6 +193,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -194,6 +209,1433 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AusreißerDiagramm!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Distanz</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-A927-4FBB-B06C-A92B1BF6AD93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-A927-4FBB-B06C-A92B1BF6AD93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="36000" tIns="19050" rIns="38100" bIns="19050" anchor="b" anchorCtr="1">
+                  <a:spAutoFit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1"/>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="de-DE"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="rect">
+                      <a:avLst/>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-A927-4FBB-B06C-A92B1BF6AD93}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:ln w="3175">
+                      <a:noFill/>
+                    </a:ln>
+                    <a:solidFill>
+                      <a:schemeClr val="bg1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>AusreißerDiagramm!$B$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>59.080376683725611</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>AusreißerDiagramm!$B$17</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="1"/>
+                  <c:pt idx="0">
+                    <c:v>59.080376683725611</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:numRef>
+              <c:f>AusreißerDiagramm!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AusreißerDiagramm!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A927-4FBB-B06C-A92B1BF6AD93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>AusreißerDiagramm!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mittelwert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>AusreißerDiagramm!$A$3:$A$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>AusreißerDiagramm!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.909090909090907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A927-4FBB-B06C-A92B1BF6AD93}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1793960367"/>
+        <c:axId val="1793959951"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1793960367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Anzahl der Messungen</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793959951"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1793959951"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="250"/>
+          <c:min val="-70"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="de-DE"/>
+                  <a:t>Distanz in m</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="de-DE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1793960367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>704850</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B063952-69FA-4BB2-922E-60FEBEB8A471}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -461,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -722,7 +2164,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,7 +3004,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2109,4 +3551,202 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AB51E9-B9D7-4CE6-806E-763F9AB52C14}">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P49" sqref="P49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>6</v>
+      </c>
+      <c r="C3" s="7">
+        <f>AVERAGE($B$3:$B$13)</f>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" ref="C4:C13" si="0">AVERAGE($B$3:$B$13)</f>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>177</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>12</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>79</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>125</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7">
+        <f>AVERAGE($B$3:$B$13)</f>
+        <v>52.909090909090907</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="7">
+        <f>STDEVA(B3:B13)</f>
+        <v>59.080376683725611</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{615F38C4-B017-40BF-9A38-51B336805A27}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>